--- a/app/static/bah_2025.xlsx
+++ b/app/static/bah_2025.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CCF494-AE0C-40E9-A2AF-844B46BCB1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA4EEE2-1DBD-45F7-9337-19BEB36BA74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="With" sheetId="1" r:id="rId1"/>
-    <sheet name="Without" sheetId="2" r:id="rId2"/>
+    <sheet name="with" sheetId="1" r:id="rId1"/>
+    <sheet name="without" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">With!$A$1:$Z$338</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Without!$A$1:$Z$337</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">With!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Without!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">with!$A$1:$Z$338</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">without!$A$1:$Z$337</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">with!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">without!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,78 +40,6 @@
     <t>MHA</t>
   </si>
   <si>
-    <t>E01</t>
-  </si>
-  <si>
-    <t>E02</t>
-  </si>
-  <si>
-    <t>E03</t>
-  </si>
-  <si>
-    <t>E04</t>
-  </si>
-  <si>
-    <t>E05</t>
-  </si>
-  <si>
-    <t>E06</t>
-  </si>
-  <si>
-    <t>E07</t>
-  </si>
-  <si>
-    <t>E08</t>
-  </si>
-  <si>
-    <t>E09</t>
-  </si>
-  <si>
-    <t>W01</t>
-  </si>
-  <si>
-    <t>W02</t>
-  </si>
-  <si>
-    <t>W03</t>
-  </si>
-  <si>
-    <t>W04</t>
-  </si>
-  <si>
-    <t>W05</t>
-  </si>
-  <si>
-    <t>O01E</t>
-  </si>
-  <si>
-    <t>O02E</t>
-  </si>
-  <si>
-    <t>O03E</t>
-  </si>
-  <si>
-    <t>O01</t>
-  </si>
-  <si>
-    <t>O02</t>
-  </si>
-  <si>
-    <t>O03</t>
-  </si>
-  <si>
-    <t>O04</t>
-  </si>
-  <si>
-    <t>O05</t>
-  </si>
-  <si>
-    <t>O06</t>
-  </si>
-  <si>
-    <t>O07</t>
-  </si>
-  <si>
     <t>MHA_NAME</t>
   </si>
   <si>
@@ -2141,6 +2069,78 @@
   </si>
   <si>
     <t>DAHLGREN/FORT WALKER, VA</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>O1E</t>
+  </si>
+  <si>
+    <t>O2E</t>
+  </si>
+  <si>
+    <t>O3E</t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>O6</t>
+  </si>
+  <si>
+    <t>O7</t>
   </si>
 </sst>
 </file>
@@ -2203,27 +2203,27 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2538,8 +2538,8 @@
   </sheetPr>
   <dimension ref="A1:AD807"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2561,89 +2561,89 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>24</v>
+      <c r="C1" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>701</v>
       </c>
       <c r="AA1" s="3"/>
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6">
         <v>2331</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6">
         <v>2091</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6">
         <v>2319</v>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
         <v>2268</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6">
         <v>2229</v>
@@ -3050,10 +3050,10 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <v>1995</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6">
         <v>1113</v>
@@ -3214,10 +3214,10 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="C9" s="6">
         <v>1392</v>
@@ -3296,10 +3296,10 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6">
         <v>1698</v>
@@ -3378,10 +3378,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6">
         <v>1698</v>
@@ -3460,10 +3460,10 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6">
         <v>1548</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6">
         <v>1527</v>
@@ -3624,10 +3624,10 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6">
         <v>1923</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6">
         <v>1686</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>1122</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6">
         <v>1551</v>
@@ -3952,10 +3952,10 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C18" s="6">
         <v>2163</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6">
         <v>1578</v>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C20" s="6">
         <v>1689</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C21" s="6">
         <v>1557</v>
@@ -4280,10 +4280,10 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C22" s="6">
         <v>3393</v>
@@ -4362,10 +4362,10 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C23" s="6">
         <v>4596</v>
@@ -4444,10 +4444,10 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6">
         <v>1425</v>
@@ -4526,10 +4526,10 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C25" s="6">
         <v>2139</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C26" s="6">
         <v>1926</v>
@@ -4690,10 +4690,10 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6">
         <v>3594</v>
@@ -4772,10 +4772,10 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C28" s="6">
         <v>3396</v>
@@ -4854,10 +4854,10 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6">
         <v>3048</v>
@@ -4936,10 +4936,10 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6">
         <v>3114</v>
@@ -5018,10 +5018,10 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C31" s="6">
         <v>1842</v>
@@ -5100,10 +5100,10 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C32" s="6">
         <v>2922</v>
@@ -5182,10 +5182,10 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C33" s="6">
         <v>1941</v>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C34" s="6">
         <v>2787</v>
@@ -5346,10 +5346,10 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C35" s="6">
         <v>2592</v>
@@ -5428,10 +5428,10 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C36" s="6">
         <v>2337</v>
@@ -5510,10 +5510,10 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6">
         <v>3042</v>
@@ -5592,10 +5592,10 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C38" s="6">
         <v>3459</v>
@@ -5674,10 +5674,10 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C39" s="6">
         <v>3663</v>
@@ -5756,10 +5756,10 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C40" s="6">
         <v>3114</v>
@@ -5838,10 +5838,10 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C41" s="6">
         <v>3042</v>
@@ -5920,10 +5920,10 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C42" s="6">
         <v>1617</v>
@@ -6002,10 +6002,10 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C43" s="6">
         <v>4155</v>
@@ -6084,10 +6084,10 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C44" s="6">
         <v>2865</v>
@@ -6166,10 +6166,10 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C45" s="6">
         <v>1950</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C46" s="6">
         <v>1920</v>
@@ -6330,10 +6330,10 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C47" s="6">
         <v>2403</v>
@@ -6412,10 +6412,10 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C48" s="6">
         <v>2580</v>
@@ -6494,10 +6494,10 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C49" s="6">
         <v>2160</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C50" s="6">
         <v>2013</v>
@@ -6658,10 +6658,10 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6">
         <v>2463</v>
@@ -6740,10 +6740,10 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C52" s="6">
         <v>2265</v>
@@ -6822,10 +6822,10 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C53" s="6">
         <v>2448</v>
@@ -6904,10 +6904,10 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C54" s="6">
         <v>2961</v>
@@ -6986,10 +6986,10 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C55" s="6">
         <v>2922</v>
@@ -7068,10 +7068,10 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C56" s="6">
         <v>2163</v>
@@ -7150,10 +7150,10 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C57" s="6">
         <v>2247</v>
@@ -7232,10 +7232,10 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C58" s="6">
         <v>1947</v>
@@ -7314,10 +7314,10 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C59" s="6">
         <v>2100</v>
@@ -7396,10 +7396,10 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C60" s="6">
         <v>2253</v>
@@ -7478,10 +7478,10 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C61" s="6">
         <v>3288</v>
@@ -7560,10 +7560,10 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C62" s="6">
         <v>2394</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C63" s="6">
         <v>2064</v>
@@ -7724,10 +7724,10 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C64" s="6">
         <v>1773</v>
@@ -7806,10 +7806,10 @@
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C65" s="6">
         <v>1647</v>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C66" s="6">
         <v>2523</v>
@@ -7970,10 +7970,10 @@
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C67" s="6">
         <v>3105</v>
@@ -8052,10 +8052,10 @@
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C68" s="6">
         <v>2121</v>
@@ -8134,10 +8134,10 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C69" s="6">
         <v>3735</v>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C70" s="6">
         <v>2118</v>
@@ -8298,10 +8298,10 @@
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C71" s="6">
         <v>2388</v>
@@ -8380,10 +8380,10 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C72" s="6">
         <v>2610</v>
@@ -8462,10 +8462,10 @@
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C73" s="6">
         <v>2247</v>
@@ -8544,10 +8544,10 @@
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C74" s="6">
         <v>1296</v>
@@ -8626,10 +8626,10 @@
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="C75" s="6">
         <v>1719</v>
@@ -8708,10 +8708,10 @@
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C76" s="6">
         <v>2013</v>
@@ -8790,10 +8790,10 @@
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="C77" s="6">
         <v>1590</v>
@@ -8872,10 +8872,10 @@
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C78" s="6">
         <v>1683</v>
@@ -8954,10 +8954,10 @@
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C79" s="6">
         <v>2181</v>
@@ -9036,10 +9036,10 @@
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C80" s="6">
         <v>2043</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C81" s="6">
         <v>2040</v>
@@ -9200,10 +9200,10 @@
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C82" s="6">
         <v>1392</v>
@@ -9282,10 +9282,10 @@
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C83" s="6">
         <v>3783</v>
@@ -9364,10 +9364,10 @@
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C84" s="6">
         <v>3204</v>
@@ -9446,10 +9446,10 @@
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C85" s="6">
         <v>3273</v>
@@ -9528,10 +9528,10 @@
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="C86" s="6">
         <v>3357</v>
@@ -9610,10 +9610,10 @@
     </row>
     <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C87" s="6">
         <v>1425</v>
@@ -9692,10 +9692,10 @@
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C88" s="6">
         <v>1938</v>
@@ -9774,10 +9774,10 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C89" s="6">
         <v>1593</v>
@@ -9856,10 +9856,10 @@
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C90" s="6">
         <v>1341</v>
@@ -9938,10 +9938,10 @@
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C91" s="6">
         <v>1515</v>
@@ -10020,10 +10020,10 @@
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C92" s="6">
         <v>1371</v>
@@ -10102,10 +10102,10 @@
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C93" s="6">
         <v>2082</v>
@@ -10184,10 +10184,10 @@
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C94" s="6">
         <v>1458</v>
@@ -10266,10 +10266,10 @@
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C95" s="6">
         <v>2901</v>
@@ -10348,10 +10348,10 @@
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="C96" s="6">
         <v>1368</v>
@@ -10430,10 +10430,10 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C97" s="6">
         <v>1716</v>
@@ -10512,10 +10512,10 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C98" s="6">
         <v>1668</v>
@@ -10594,10 +10594,10 @@
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C99" s="6">
         <v>1314</v>
@@ -10676,10 +10676,10 @@
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C100" s="6">
         <v>1647</v>
@@ -10758,10 +10758,10 @@
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C101" s="6">
         <v>1206</v>
@@ -10840,10 +10840,10 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C102" s="6">
         <v>1254</v>
@@ -10922,10 +10922,10 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C103" s="6">
         <v>1680</v>
@@ -11004,10 +11004,10 @@
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C104" s="6">
         <v>1353</v>
@@ -11086,10 +11086,10 @@
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C105" s="6">
         <v>1773</v>
@@ -11168,10 +11168,10 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C106" s="6">
         <v>1614</v>
@@ -11250,10 +11250,10 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C107" s="6">
         <v>1773</v>
@@ -11332,10 +11332,10 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C108" s="6">
         <v>1452</v>
@@ -11414,10 +11414,10 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C109" s="6">
         <v>1167</v>
@@ -11496,10 +11496,10 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C110" s="6">
         <v>1269</v>
@@ -11578,10 +11578,10 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C111" s="6">
         <v>1182</v>
@@ -11660,10 +11660,10 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C112" s="6">
         <v>1728</v>
@@ -11742,10 +11742,10 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="C113" s="6">
         <v>1131</v>
@@ -11824,10 +11824,10 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C114" s="6">
         <v>1725</v>
@@ -11906,10 +11906,10 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C115" s="6">
         <v>1545</v>
@@ -11988,10 +11988,10 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C116" s="6">
         <v>1530</v>
@@ -12070,10 +12070,10 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C117" s="6">
         <v>1509</v>
@@ -12152,10 +12152,10 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C118" s="6">
         <v>1254</v>
@@ -12234,10 +12234,10 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C119" s="6">
         <v>1104</v>
@@ -12316,10 +12316,10 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C120" s="6">
         <v>3900</v>
@@ -12398,10 +12398,10 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C121" s="6">
         <v>4194</v>
@@ -12480,10 +12480,10 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C122" s="6">
         <v>2739</v>
@@ -12562,10 +12562,10 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="C123" s="6">
         <v>2961</v>
@@ -12644,10 +12644,10 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C124" s="6">
         <v>3462</v>
@@ -12726,10 +12726,10 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C125" s="6">
         <v>3108</v>
@@ -12808,10 +12808,10 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C126" s="6">
         <v>2202</v>
@@ -12890,10 +12890,10 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C127" s="6">
         <v>3666</v>
@@ -12972,10 +12972,10 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C128" s="6">
         <v>3858</v>
@@ -13054,10 +13054,10 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C129" s="6">
         <v>2199</v>
@@ -13136,10 +13136,10 @@
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C130" s="6">
         <v>2709</v>
@@ -13218,10 +13218,10 @@
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C131" s="6">
         <v>2352</v>
@@ -13300,10 +13300,10 @@
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C132" s="6">
         <v>2373</v>
@@ -13382,10 +13382,10 @@
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="C133" s="6">
         <v>2682</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C134" s="6">
         <v>3066</v>
@@ -13546,10 +13546,10 @@
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C135" s="6">
         <v>2214</v>
@@ -13628,10 +13628,10 @@
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="C136" s="6">
         <v>1926</v>
@@ -13710,10 +13710,10 @@
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="C137" s="6">
         <v>2175</v>
@@ -13792,10 +13792,10 @@
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C138" s="6">
         <v>1962</v>
@@ -13874,10 +13874,10 @@
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C139" s="6">
         <v>2871</v>
@@ -13956,10 +13956,10 @@
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C140" s="6">
         <v>1983</v>
@@ -14038,10 +14038,10 @@
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C141" s="6">
         <v>1698</v>
@@ -14120,10 +14120,10 @@
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C142" s="6">
         <v>1941</v>
@@ -14202,10 +14202,10 @@
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C143" s="6">
         <v>1620</v>
@@ -14284,10 +14284,10 @@
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C144" s="6">
         <v>1302</v>
@@ -14366,10 +14366,10 @@
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C145" s="6">
         <v>1851</v>
@@ -14448,10 +14448,10 @@
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C146" s="6">
         <v>1917</v>
@@ -14530,10 +14530,10 @@
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C147" s="6">
         <v>1581</v>
@@ -14612,10 +14612,10 @@
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C148" s="6">
         <v>1482</v>
@@ -14694,10 +14694,10 @@
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C149" s="6">
         <v>1848</v>
@@ -14776,10 +14776,10 @@
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C150" s="6">
         <v>2226</v>
@@ -14858,10 +14858,10 @@
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C151" s="6">
         <v>1335</v>
@@ -14940,10 +14940,10 @@
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C152" s="6">
         <v>1842</v>
@@ -15022,10 +15022,10 @@
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C153" s="6">
         <v>2112</v>
@@ -15104,10 +15104,10 @@
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C154" s="6">
         <v>1794</v>
@@ -15186,10 +15186,10 @@
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C155" s="6">
         <v>2112</v>
@@ -15268,10 +15268,10 @@
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C156" s="6">
         <v>1314</v>
@@ -15350,10 +15350,10 @@
     </row>
     <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C157" s="6">
         <v>1224</v>
@@ -15432,10 +15432,10 @@
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C158" s="6">
         <v>1239</v>
@@ -15514,10 +15514,10 @@
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="C159" s="6">
         <v>1188</v>
@@ -15596,10 +15596,10 @@
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C160" s="6">
         <v>1437</v>
@@ -15678,10 +15678,10 @@
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C161" s="6">
         <v>1254</v>
@@ -15760,10 +15760,10 @@
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C162" s="6">
         <v>1653</v>
@@ -15842,10 +15842,10 @@
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C163" s="6">
         <v>1125</v>
@@ -15924,10 +15924,10 @@
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C164" s="6">
         <v>1299</v>
@@ -16006,10 +16006,10 @@
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C165" s="6">
         <v>1389</v>
@@ -16088,10 +16088,10 @@
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C166" s="6">
         <v>1656</v>
@@ -16170,10 +16170,10 @@
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C167" s="6">
         <v>2190</v>
@@ -16252,10 +16252,10 @@
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C168" s="6">
         <v>1827</v>
@@ -16334,10 +16334,10 @@
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C169" s="6">
         <v>1554</v>
@@ -16416,10 +16416,10 @@
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C170" s="6">
         <v>2046</v>
@@ -16498,10 +16498,10 @@
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C171" s="6">
         <v>1965</v>
@@ -16580,10 +16580,10 @@
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C172" s="6">
         <v>2157</v>
@@ -16662,10 +16662,10 @@
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="C173" s="6">
         <v>1701</v>
@@ -16744,10 +16744,10 @@
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C174" s="6">
         <v>1440</v>
@@ -16826,10 +16826,10 @@
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C175" s="6">
         <v>1647</v>
@@ -16908,10 +16908,10 @@
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="C176" s="6">
         <v>1989</v>
@@ -16990,10 +16990,10 @@
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C177" s="6">
         <v>1971</v>
@@ -17072,10 +17072,10 @@
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C178" s="6">
         <v>2106</v>
@@ -17154,10 +17154,10 @@
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C179" s="6">
         <v>1359</v>
@@ -17236,10 +17236,10 @@
     </row>
     <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C180" s="6">
         <v>1332</v>
@@ -17318,10 +17318,10 @@
     </row>
     <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C181" s="6">
         <v>1380</v>
@@ -17400,10 +17400,10 @@
     </row>
     <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C182" s="6">
         <v>1356</v>
@@ -17482,10 +17482,10 @@
     </row>
     <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C183" s="6">
         <v>1740</v>
@@ -17564,10 +17564,10 @@
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C184" s="6">
         <v>1473</v>
@@ -17646,10 +17646,10 @@
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C185" s="6">
         <v>2952</v>
@@ -17728,10 +17728,10 @@
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="C186" s="6">
         <v>2802</v>
@@ -17810,10 +17810,10 @@
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C187" s="6">
         <v>2466</v>
@@ -17892,10 +17892,10 @@
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="C188" s="6">
         <v>2319</v>
@@ -17974,10 +17974,10 @@
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C189" s="6">
         <v>3231</v>
@@ -18056,10 +18056,10 @@
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C190" s="6">
         <v>3150</v>
@@ -18138,10 +18138,10 @@
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="C191" s="6">
         <v>4035</v>
@@ -18220,10 +18220,10 @@
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C192" s="6">
         <v>3072</v>
@@ -18302,10 +18302,10 @@
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C193" s="6">
         <v>2595</v>
@@ -18384,10 +18384,10 @@
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="C194" s="6">
         <v>1290</v>
@@ -18466,10 +18466,10 @@
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C195" s="6">
         <v>1971</v>
@@ -18548,10 +18548,10 @@
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="C196" s="6">
         <v>1203</v>
@@ -18630,10 +18630,10 @@
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="C197" s="6">
         <v>1533</v>
@@ -18712,10 +18712,10 @@
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="C198" s="6">
         <v>2448</v>
@@ -18794,10 +18794,10 @@
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="C199" s="6">
         <v>1503</v>
@@ -18876,10 +18876,10 @@
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C200" s="6">
         <v>1980</v>
@@ -18958,10 +18958,10 @@
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C201" s="6">
         <v>2184</v>
@@ -19040,10 +19040,10 @@
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C202" s="6">
         <v>2259</v>
@@ -19122,10 +19122,10 @@
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C203" s="6">
         <v>1887</v>
@@ -19204,10 +19204,10 @@
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C204" s="6">
         <v>2934</v>
@@ -19286,10 +19286,10 @@
     </row>
     <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="C205" s="6">
         <v>3933</v>
@@ -19368,10 +19368,10 @@
     </row>
     <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C206" s="6">
         <v>5070</v>
@@ -19450,10 +19450,10 @@
     </row>
     <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C207" s="6">
         <v>1830</v>
@@ -19532,10 +19532,10 @@
     </row>
     <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="C208" s="6">
         <v>1914</v>
@@ -19614,10 +19614,10 @@
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C209" s="6">
         <v>1797</v>
@@ -19696,10 +19696,10 @@
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="C210" s="6">
         <v>1494</v>
@@ -19778,10 +19778,10 @@
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="C211" s="6">
         <v>3921</v>
@@ -19860,10 +19860,10 @@
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="C212" s="6">
         <v>3435</v>
@@ -19942,10 +19942,10 @@
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C213" s="6">
         <v>1446</v>
@@ -20024,10 +20024,10 @@
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C214" s="6">
         <v>1935</v>
@@ -20106,10 +20106,10 @@
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C215" s="6">
         <v>1689</v>
@@ -20188,10 +20188,10 @@
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C216" s="6">
         <v>1710</v>
@@ -20270,10 +20270,10 @@
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="C217" s="6">
         <v>1434</v>
@@ -20352,10 +20352,10 @@
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="C218" s="6">
         <v>1716</v>
@@ -20434,10 +20434,10 @@
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="C219" s="6">
         <v>1089</v>
@@ -20516,10 +20516,10 @@
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C220" s="6">
         <v>1122</v>
@@ -20598,10 +20598,10 @@
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C221" s="6">
         <v>1077</v>
@@ -20680,10 +20680,10 @@
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C222" s="6">
         <v>1170</v>
@@ -20762,10 +20762,10 @@
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C223" s="6">
         <v>1518</v>
@@ -20844,10 +20844,10 @@
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C224" s="6">
         <v>1419</v>
@@ -20926,10 +20926,10 @@
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="C225" s="6">
         <v>1839</v>
@@ -21008,10 +21008,10 @@
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="C226" s="6">
         <v>1665</v>
@@ -21090,10 +21090,10 @@
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="C227" s="6">
         <v>2169</v>
@@ -21172,10 +21172,10 @@
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C228" s="6">
         <v>1836</v>
@@ -21254,10 +21254,10 @@
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="C229" s="6">
         <v>2088</v>
@@ -21336,10 +21336,10 @@
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="C230" s="6">
         <v>1965</v>
@@ -21418,10 +21418,10 @@
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="C231" s="6">
         <v>1842</v>
@@ -21500,10 +21500,10 @@
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="C232" s="6">
         <v>2331</v>
@@ -21582,10 +21582,10 @@
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C233" s="6">
         <v>2700</v>
@@ -21664,10 +21664,10 @@
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="C234" s="6">
         <v>1986</v>
@@ -21746,10 +21746,10 @@
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C235" s="6">
         <v>1545</v>
@@ -21828,10 +21828,10 @@
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="C236" s="6">
         <v>1383</v>
@@ -21910,10 +21910,10 @@
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="C237" s="6">
         <v>1644</v>
@@ -21992,10 +21992,10 @@
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="C238" s="6">
         <v>2163</v>
@@ -22074,10 +22074,10 @@
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C239" s="6">
         <v>2586</v>
@@ -22156,10 +22156,10 @@
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C240" s="6">
         <v>2784</v>
@@ -22238,10 +22238,10 @@
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="C241" s="6">
         <v>2367</v>
@@ -22320,10 +22320,10 @@
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C242" s="6">
         <v>2244</v>
@@ -22402,10 +22402,10 @@
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C243" s="6">
         <v>1812</v>
@@ -22484,10 +22484,10 @@
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C244" s="6">
         <v>1752</v>
@@ -22566,10 +22566,10 @@
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C245" s="6">
         <v>2016</v>
@@ -22648,10 +22648,10 @@
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C246" s="6">
         <v>1362</v>
@@ -22730,10 +22730,10 @@
     </row>
     <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C247" s="6">
         <v>1779</v>
@@ -22812,10 +22812,10 @@
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C248" s="6">
         <v>1410</v>
@@ -22894,10 +22894,10 @@
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C249" s="6">
         <v>1851</v>
@@ -22976,10 +22976,10 @@
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C250" s="6">
         <v>1923</v>
@@ -23058,10 +23058,10 @@
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C251" s="6">
         <v>2064</v>
@@ -23140,10 +23140,10 @@
     </row>
     <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C252" s="6">
         <v>2133</v>
@@ -23222,10 +23222,10 @@
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C253" s="6">
         <v>1407</v>
@@ -23304,10 +23304,10 @@
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C254" s="6">
         <v>1389</v>
@@ -23386,10 +23386,10 @@
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C255" s="6">
         <v>2115</v>
@@ -23468,10 +23468,10 @@
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C256" s="6">
         <v>1404</v>
@@ -23550,10 +23550,10 @@
     </row>
     <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C257" s="6">
         <v>1596</v>
@@ -23632,10 +23632,10 @@
     </row>
     <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C258" s="6">
         <v>1611</v>
@@ -23714,10 +23714,10 @@
     </row>
     <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C259" s="6">
         <v>2280</v>
@@ -23796,10 +23796,10 @@
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C260" s="6">
         <v>1305</v>
@@ -23878,10 +23878,10 @@
     </row>
     <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C261" s="6">
         <v>1647</v>
@@ -23960,10 +23960,10 @@
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C262" s="6">
         <v>1515</v>
@@ -24042,10 +24042,10 @@
     </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C263" s="6">
         <v>1929</v>
@@ -24124,10 +24124,10 @@
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C264" s="6">
         <v>1365</v>
@@ -24206,10 +24206,10 @@
     </row>
     <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C265" s="6">
         <v>1383</v>
@@ -24288,10 +24288,10 @@
     </row>
     <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C266" s="6">
         <v>1791</v>
@@ -24370,10 +24370,10 @@
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="C267" s="6">
         <v>1563</v>
@@ -24452,10 +24452,10 @@
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C268" s="6">
         <v>1341</v>
@@ -24534,10 +24534,10 @@
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C269" s="6">
         <v>1947</v>
@@ -24616,10 +24616,10 @@
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="C270" s="6">
         <v>1614</v>
@@ -24698,10 +24698,10 @@
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C271" s="6">
         <v>1935</v>
@@ -24780,10 +24780,10 @@
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C272" s="6">
         <v>1974</v>
@@ -24862,10 +24862,10 @@
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C273" s="6">
         <v>1971</v>
@@ -24944,10 +24944,10 @@
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C274" s="6">
         <v>2112</v>
@@ -25026,10 +25026,10 @@
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="C275" s="6">
         <v>2769</v>
@@ -25108,10 +25108,10 @@
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C276" s="6">
         <v>2019</v>
@@ -25190,10 +25190,10 @@
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="C277" s="6">
         <v>2154</v>
@@ -25272,10 +25272,10 @@
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="C278" s="6">
         <v>2112</v>
@@ -25354,10 +25354,10 @@
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="C279" s="6">
         <v>2763</v>
@@ -25436,10 +25436,10 @@
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="C280" s="6">
         <v>1359</v>
@@ -25518,10 +25518,10 @@
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C281" s="6">
         <v>1680</v>
@@ -25600,10 +25600,10 @@
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="C282" s="6">
         <v>2310</v>
@@ -25682,10 +25682,10 @@
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="C283" s="6">
         <v>2715</v>
@@ -25764,10 +25764,10 @@
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="C284" s="6">
         <v>2253</v>
@@ -25846,10 +25846,10 @@
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="C285" s="6">
         <v>2532</v>
@@ -25928,10 +25928,10 @@
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="C286" s="6">
         <v>2022</v>
@@ -26010,10 +26010,10 @@
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="C287" s="6">
         <v>2904</v>
@@ -26092,10 +26092,10 @@
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="C288" s="6">
         <v>1923</v>
@@ -26174,10 +26174,10 @@
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="C289" s="6">
         <v>2328</v>
@@ -26256,10 +26256,10 @@
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C290" s="6">
         <v>1977</v>
@@ -26338,10 +26338,10 @@
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C291" s="6">
         <v>1611</v>
@@ -26420,10 +26420,10 @@
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="C292" s="6">
         <v>2151</v>
@@ -26502,10 +26502,10 @@
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="C293" s="6">
         <v>2178</v>
@@ -26584,10 +26584,10 @@
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="C294" s="6">
         <v>1320</v>
@@ -26666,10 +26666,10 @@
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="C295" s="6">
         <v>1206</v>
@@ -26748,10 +26748,10 @@
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="C296" s="6">
         <v>1389</v>
@@ -26830,10 +26830,10 @@
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="C297" s="6">
         <v>1356</v>
@@ -26912,10 +26912,10 @@
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="C298" s="6">
         <v>1212</v>
@@ -26994,10 +26994,10 @@
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="C299" s="6">
         <v>1902</v>
@@ -27076,10 +27076,10 @@
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C300" s="6">
         <v>1359</v>
@@ -27158,10 +27158,10 @@
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C301" s="6">
         <v>1212</v>
@@ -27240,10 +27240,10 @@
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C302" s="6">
         <v>1227</v>
@@ -27321,10 +27321,10 @@
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="C303" s="6">
         <v>1242</v>
@@ -27402,10 +27402,10 @@
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="C304" s="6">
         <v>1254</v>
@@ -27483,10 +27483,10 @@
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="C305" s="6">
         <v>1266</v>
@@ -27564,10 +27564,10 @@
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="C306" s="6">
         <v>1275</v>
@@ -27645,10 +27645,10 @@
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="C307" s="6">
         <v>1287</v>
@@ -27726,10 +27726,10 @@
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="C308" s="6">
         <v>1293</v>
@@ -27807,10 +27807,10 @@
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C309" s="6">
         <v>1299</v>
@@ -27888,10 +27888,10 @@
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="C310" s="6">
         <v>1305</v>
@@ -27969,10 +27969,10 @@
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="C311" s="6">
         <v>1308</v>
@@ -28050,10 +28050,10 @@
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="C312" s="6">
         <v>1314</v>
@@ -28131,10 +28131,10 @@
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="C313" s="6">
         <v>1320</v>
@@ -28212,10 +28212,10 @@
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="C314" s="6">
         <v>1326</v>
@@ -28293,10 +28293,10 @@
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="C315" s="6">
         <v>1335</v>
@@ -28374,10 +28374,10 @@
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="C316" s="6">
         <v>1341</v>
@@ -28455,10 +28455,10 @@
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="C317" s="6">
         <v>1356</v>
@@ -28536,10 +28536,10 @@
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C318" s="6">
         <v>1368</v>
@@ -28617,10 +28617,10 @@
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="C319" s="6">
         <v>1389</v>
@@ -28698,10 +28698,10 @@
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="C320" s="6">
         <v>1413</v>
@@ -28779,10 +28779,10 @@
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="C321" s="6">
         <v>1434</v>
@@ -28860,10 +28860,10 @@
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="C322" s="6">
         <v>1461</v>
@@ -28941,10 +28941,10 @@
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="C323" s="6">
         <v>1491</v>
@@ -29022,10 +29022,10 @@
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="C324" s="6">
         <v>1533</v>
@@ -29103,10 +29103,10 @@
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="C325" s="6">
         <v>1578</v>
@@ -29184,10 +29184,10 @@
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="C326" s="6">
         <v>1620</v>
@@ -29265,10 +29265,10 @@
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="C327" s="6">
         <v>1656</v>
@@ -29346,10 +29346,10 @@
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="C328" s="6">
         <v>1689</v>
@@ -29427,10 +29427,10 @@
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="C329" s="6">
         <v>1719</v>
@@ -29508,10 +29508,10 @@
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="C330" s="6">
         <v>1752</v>
@@ -29589,10 +29589,10 @@
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="C331" s="6">
         <v>1785</v>
@@ -29670,10 +29670,10 @@
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="C332" s="6">
         <v>1833</v>
@@ -29751,10 +29751,10 @@
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="C333" s="6">
         <v>1905</v>
@@ -29832,10 +29832,10 @@
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="C334" s="6">
         <v>1980</v>
@@ -29913,10 +29913,10 @@
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="C335" s="6">
         <v>2076</v>
@@ -29994,10 +29994,10 @@
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="C336" s="6">
         <v>2232</v>
@@ -30075,10 +30075,10 @@
     </row>
     <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="C337" s="6">
         <v>2325</v>
@@ -30156,10 +30156,10 @@
     </row>
     <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="C338" s="6">
         <v>2460</v>
@@ -30237,10 +30237,10 @@
     </row>
     <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="C339" s="5">
         <v>2793</v>
@@ -31703,8 +31703,8 @@
   </sheetPr>
   <dimension ref="A1:AB802"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31725,89 +31725,89 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>679</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>3</v>
+        <v>680</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>682</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>5</v>
+        <v>681</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>6</v>
+        <v>683</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>7</v>
+        <v>684</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>8</v>
+        <v>685</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>9</v>
+        <v>686</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>10</v>
+        <v>687</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>11</v>
+        <v>688</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>12</v>
+        <v>689</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>13</v>
+        <v>690</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>14</v>
+        <v>691</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>15</v>
+        <v>692</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>16</v>
+        <v>693</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>17</v>
+        <v>694</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>18</v>
+        <v>695</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>19</v>
+        <v>696</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>20</v>
+        <v>697</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>21</v>
+        <v>698</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>22</v>
+        <v>699</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>23</v>
+        <v>700</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>24</v>
+        <v>701</v>
       </c>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C2" s="9">
         <v>1749</v>
@@ -31886,10 +31886,10 @@
     </row>
     <row r="3" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9">
         <v>1569</v>
@@ -31968,10 +31968,10 @@
     </row>
     <row r="4" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9">
         <v>1740</v>
@@ -32050,10 +32050,10 @@
     </row>
     <row r="5" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C5" s="9">
         <v>1701</v>
@@ -32132,10 +32132,10 @@
     </row>
     <row r="6" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C6" s="9">
         <v>1671</v>
@@ -32214,10 +32214,10 @@
     </row>
     <row r="7" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9">
         <v>1497</v>
@@ -32296,10 +32296,10 @@
     </row>
     <row r="8" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9">
         <v>918</v>
@@ -32378,10 +32378,10 @@
     </row>
     <row r="9" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="C9" s="9">
         <v>1137</v>
@@ -32460,10 +32460,10 @@
     </row>
     <row r="10" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9">
         <v>1317</v>
@@ -32542,10 +32542,10 @@
     </row>
     <row r="11" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C11" s="9">
         <v>1281</v>
@@ -32624,10 +32624,10 @@
     </row>
     <row r="12" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9">
         <v>1236</v>
@@ -32706,10 +32706,10 @@
     </row>
     <row r="13" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C13" s="9">
         <v>1314</v>
@@ -32788,10 +32788,10 @@
     </row>
     <row r="14" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C14" s="9">
         <v>1443</v>
@@ -32870,10 +32870,10 @@
     </row>
     <row r="15" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9">
         <v>1320</v>
@@ -32952,10 +32952,10 @@
     </row>
     <row r="16" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9">
         <v>873</v>
@@ -33034,10 +33034,10 @@
     </row>
     <row r="17" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C17" s="9">
         <v>1173</v>
@@ -33116,10 +33116,10 @@
     </row>
     <row r="18" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C18" s="9">
         <v>1644</v>
@@ -33198,10 +33198,10 @@
     </row>
     <row r="19" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C19" s="9">
         <v>1260</v>
@@ -33280,10 +33280,10 @@
     </row>
     <row r="20" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9">
         <v>1266</v>
@@ -33362,10 +33362,10 @@
     </row>
     <row r="21" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C21" s="9">
         <v>1176</v>
@@ -33444,10 +33444,10 @@
     </row>
     <row r="22" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C22" s="9">
         <v>2562</v>
@@ -33526,10 +33526,10 @@
     </row>
     <row r="23" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9">
         <v>3447</v>
@@ -33608,10 +33608,10 @@
     </row>
     <row r="24" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C24" s="9">
         <v>1161</v>
@@ -33690,10 +33690,10 @@
     </row>
     <row r="25" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C25" s="9">
         <v>1605</v>
@@ -33772,10 +33772,10 @@
     </row>
     <row r="26" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9">
         <v>1590</v>
@@ -33854,10 +33854,10 @@
     </row>
     <row r="27" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C27" s="9">
         <v>2757</v>
@@ -33936,10 +33936,10 @@
     </row>
     <row r="28" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C28" s="9">
         <v>2700</v>
@@ -34018,10 +34018,10 @@
     </row>
     <row r="29" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C29" s="9">
         <v>2352</v>
@@ -34100,10 +34100,10 @@
     </row>
     <row r="30" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C30" s="9">
         <v>2442</v>
@@ -34182,10 +34182,10 @@
     </row>
     <row r="31" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C31" s="9">
         <v>1458</v>
@@ -34264,10 +34264,10 @@
     </row>
     <row r="32" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C32" s="9">
         <v>2193</v>
@@ -34346,10 +34346,10 @@
     </row>
     <row r="33" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C33" s="9">
         <v>1683</v>
@@ -34428,10 +34428,10 @@
     </row>
     <row r="34" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C34" s="9">
         <v>2217</v>
@@ -34510,10 +34510,10 @@
     </row>
     <row r="35" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C35" s="9">
         <v>1980</v>
@@ -34592,10 +34592,10 @@
     </row>
     <row r="36" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C36" s="9">
         <v>1836</v>
@@ -34674,10 +34674,10 @@
     </row>
     <row r="37" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C37" s="9">
         <v>2448</v>
@@ -34756,10 +34756,10 @@
     </row>
     <row r="38" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C38" s="9">
         <v>2595</v>
@@ -34838,10 +34838,10 @@
     </row>
     <row r="39" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C39" s="9">
         <v>2748</v>
@@ -34920,10 +34920,10 @@
     </row>
     <row r="40" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C40" s="9">
         <v>2337</v>
@@ -35002,10 +35002,10 @@
     </row>
     <row r="41" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C41" s="9">
         <v>2343</v>
@@ -35084,10 +35084,10 @@
     </row>
     <row r="42" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C42" s="9">
         <v>1398</v>
@@ -35166,10 +35166,10 @@
     </row>
     <row r="43" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C43" s="9">
         <v>3174</v>
@@ -35248,10 +35248,10 @@
     </row>
     <row r="44" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C44" s="9">
         <v>2154</v>
@@ -35330,10 +35330,10 @@
     </row>
     <row r="45" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C45" s="9">
         <v>1506</v>
@@ -35412,10 +35412,10 @@
     </row>
     <row r="46" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C46" s="9">
         <v>1530</v>
@@ -35494,10 +35494,10 @@
     </row>
     <row r="47" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C47" s="9">
         <v>1848</v>
@@ -35576,10 +35576,10 @@
     </row>
     <row r="48" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C48" s="9">
         <v>1935</v>
@@ -35658,10 +35658,10 @@
     </row>
     <row r="49" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C49" s="9">
         <v>1692</v>
@@ -35740,10 +35740,10 @@
     </row>
     <row r="50" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C50" s="9">
         <v>1611</v>
@@ -35822,10 +35822,10 @@
     </row>
     <row r="51" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C51" s="9">
         <v>1905</v>
@@ -35904,10 +35904,10 @@
     </row>
     <row r="52" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C52" s="9">
         <v>1863</v>
@@ -35986,10 +35986,10 @@
     </row>
     <row r="53" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C53" s="9">
         <v>1881</v>
@@ -36068,10 +36068,10 @@
     </row>
     <row r="54" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C54" s="9">
         <v>2352</v>
@@ -36150,10 +36150,10 @@
     </row>
     <row r="55" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C55" s="9">
         <v>2283</v>
@@ -36232,10 +36232,10 @@
     </row>
     <row r="56" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C56" s="9">
         <v>1761</v>
@@ -36314,10 +36314,10 @@
     </row>
     <row r="57" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C57" s="9">
         <v>2004</v>
@@ -36396,10 +36396,10 @@
     </row>
     <row r="58" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C58" s="9">
         <v>1560</v>
@@ -36478,10 +36478,10 @@
     </row>
     <row r="59" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C59" s="9">
         <v>1671</v>
@@ -36560,10 +36560,10 @@
     </row>
     <row r="60" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C60" s="9">
         <v>1821</v>
@@ -36642,10 +36642,10 @@
     </row>
     <row r="61" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C61" s="9">
         <v>2532</v>
@@ -36724,10 +36724,10 @@
     </row>
     <row r="62" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C62" s="9">
         <v>1797</v>
@@ -36806,10 +36806,10 @@
     </row>
     <row r="63" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C63" s="9">
         <v>1719</v>
@@ -36888,10 +36888,10 @@
     </row>
     <row r="64" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C64" s="9">
         <v>1497</v>
@@ -36970,10 +36970,10 @@
     </row>
     <row r="65" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C65" s="9">
         <v>1332</v>
@@ -37052,10 +37052,10 @@
     </row>
     <row r="66" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C66" s="9">
         <v>1944</v>
@@ -37134,10 +37134,10 @@
     </row>
     <row r="67" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C67" s="9">
         <v>2367</v>
@@ -37216,10 +37216,10 @@
     </row>
     <row r="68" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C68" s="9">
         <v>1728</v>
@@ -37298,10 +37298,10 @@
     </row>
     <row r="69" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C69" s="9">
         <v>2997</v>
@@ -37380,10 +37380,10 @@
     </row>
     <row r="70" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C70" s="9">
         <v>1650</v>
@@ -37462,10 +37462,10 @@
     </row>
     <row r="71" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C71" s="9">
         <v>1950</v>
@@ -37544,10 +37544,10 @@
     </row>
     <row r="72" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C72" s="9">
         <v>2121</v>
@@ -37626,10 +37626,10 @@
     </row>
     <row r="73" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C73" s="9">
         <v>1752</v>
@@ -37708,10 +37708,10 @@
     </row>
     <row r="74" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C74" s="9">
         <v>1041</v>
@@ -37790,10 +37790,10 @@
     </row>
     <row r="75" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="C75" s="9">
         <v>1431</v>
@@ -37872,10 +37872,10 @@
     </row>
     <row r="76" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C76" s="9">
         <v>1644</v>
@@ -37954,10 +37954,10 @@
     </row>
     <row r="77" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="C77" s="9">
         <v>1308</v>
@@ -38036,10 +38036,10 @@
     </row>
     <row r="78" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C78" s="9">
         <v>1335</v>
@@ -38118,10 +38118,10 @@
     </row>
     <row r="79" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C79" s="9">
         <v>1788</v>
@@ -38200,10 +38200,10 @@
     </row>
     <row r="80" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C80" s="9">
         <v>1704</v>
@@ -38282,10 +38282,10 @@
     </row>
     <row r="81" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C81" s="9">
         <v>1680</v>
@@ -38364,10 +38364,10 @@
     </row>
     <row r="82" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C82" s="9">
         <v>1245</v>
@@ -38446,10 +38446,10 @@
     </row>
     <row r="83" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C83" s="9">
         <v>2838</v>
@@ -38528,10 +38528,10 @@
     </row>
     <row r="84" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C84" s="9">
         <v>2403</v>
@@ -38610,10 +38610,10 @@
     </row>
     <row r="85" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C85" s="9">
         <v>2454</v>
@@ -38692,10 +38692,10 @@
     </row>
     <row r="86" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="C86" s="9">
         <v>2589</v>
@@ -38774,10 +38774,10 @@
     </row>
     <row r="87" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C87" s="9">
         <v>1107</v>
@@ -38856,10 +38856,10 @@
     </row>
     <row r="88" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C88" s="9">
         <v>1668</v>
@@ -38938,10 +38938,10 @@
     </row>
     <row r="89" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C89" s="9">
         <v>1512</v>
@@ -39020,10 +39020,10 @@
     </row>
     <row r="90" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C90" s="9">
         <v>1071</v>
@@ -39102,10 +39102,10 @@
     </row>
     <row r="91" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C91" s="9">
         <v>1329</v>
@@ -39184,10 +39184,10 @@
     </row>
     <row r="92" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C92" s="9">
         <v>1029</v>
@@ -39266,10 +39266,10 @@
     </row>
     <row r="93" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C93" s="9">
         <v>1563</v>
@@ -39348,10 +39348,10 @@
     </row>
     <row r="94" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C94" s="9">
         <v>1173</v>
@@ -39430,10 +39430,10 @@
     </row>
     <row r="95" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C95" s="9">
         <v>2268</v>
@@ -39512,10 +39512,10 @@
     </row>
     <row r="96" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="C96" s="9">
         <v>1026</v>
@@ -39594,10 +39594,10 @@
     </row>
     <row r="97" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C97" s="9">
         <v>1356</v>
@@ -39676,10 +39676,10 @@
     </row>
     <row r="98" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C98" s="9">
         <v>1251</v>
@@ -39758,10 +39758,10 @@
     </row>
     <row r="99" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C99" s="9">
         <v>1041</v>
@@ -39840,10 +39840,10 @@
     </row>
     <row r="100" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C100" s="9">
         <v>1236</v>
@@ -39922,10 +39922,10 @@
     </row>
     <row r="101" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C101" s="9">
         <v>987</v>
@@ -40004,10 +40004,10 @@
     </row>
     <row r="102" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C102" s="9">
         <v>1026</v>
@@ -40086,10 +40086,10 @@
     </row>
     <row r="103" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C103" s="9">
         <v>1347</v>
@@ -40168,10 +40168,10 @@
     </row>
     <row r="104" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C104" s="9">
         <v>1020</v>
@@ -40250,10 +40250,10 @@
     </row>
     <row r="105" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C105" s="9">
         <v>1467</v>
@@ -40332,10 +40332,10 @@
     </row>
     <row r="106" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C106" s="9">
         <v>1212</v>
@@ -40414,10 +40414,10 @@
     </row>
     <row r="107" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C107" s="9">
         <v>1341</v>
@@ -40496,10 +40496,10 @@
     </row>
     <row r="108" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C108" s="9">
         <v>1179</v>
@@ -40578,10 +40578,10 @@
     </row>
     <row r="109" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C109" s="9">
         <v>918</v>
@@ -40660,10 +40660,10 @@
     </row>
     <row r="110" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C110" s="9">
         <v>993</v>
@@ -40742,10 +40742,10 @@
     </row>
     <row r="111" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C111" s="9">
         <v>939</v>
@@ -40824,10 +40824,10 @@
     </row>
     <row r="112" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C112" s="9">
         <v>1368</v>
@@ -40906,10 +40906,10 @@
     </row>
     <row r="113" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="C113" s="9">
         <v>885</v>
@@ -40988,10 +40988,10 @@
     </row>
     <row r="114" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C114" s="9">
         <v>1293</v>
@@ -41070,10 +41070,10 @@
     </row>
     <row r="115" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C115" s="9">
         <v>1161</v>
@@ -41152,10 +41152,10 @@
     </row>
     <row r="116" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C116" s="9">
         <v>1155</v>
@@ -41234,10 +41234,10 @@
     </row>
     <row r="117" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C117" s="9">
         <v>1131</v>
@@ -41316,10 +41316,10 @@
     </row>
     <row r="118" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C118" s="9">
         <v>1026</v>
@@ -41398,10 +41398,10 @@
     </row>
     <row r="119" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C119" s="9">
         <v>906</v>
@@ -41480,10 +41480,10 @@
     </row>
     <row r="120" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C120" s="9">
         <v>2925</v>
@@ -41562,10 +41562,10 @@
     </row>
     <row r="121" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C121" s="9">
         <v>3147</v>
@@ -41644,10 +41644,10 @@
     </row>
     <row r="122" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C122" s="9">
         <v>2334</v>
@@ -41726,10 +41726,10 @@
     </row>
     <row r="123" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="C123" s="9">
         <v>2376</v>
@@ -41808,10 +41808,10 @@
     </row>
     <row r="124" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C124" s="9">
         <v>2829</v>
@@ -41890,10 +41890,10 @@
     </row>
     <row r="125" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C125" s="9">
         <v>2454</v>
@@ -41972,10 +41972,10 @@
     </row>
     <row r="126" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C126" s="9">
         <v>1692</v>
@@ -42054,10 +42054,10 @@
     </row>
     <row r="127" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C127" s="9">
         <v>2751</v>
@@ -42136,10 +42136,10 @@
     </row>
     <row r="128" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C128" s="9">
         <v>2970</v>
@@ -42218,10 +42218,10 @@
     </row>
     <row r="129" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C129" s="9">
         <v>1848</v>
@@ -42300,10 +42300,10 @@
     </row>
     <row r="130" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C130" s="9">
         <v>2256</v>
@@ -42382,10 +42382,10 @@
     </row>
     <row r="131" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="C131" s="9">
         <v>1824</v>
@@ -42464,10 +42464,10 @@
     </row>
     <row r="132" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="C132" s="9">
         <v>2010</v>
@@ -42546,10 +42546,10 @@
     </row>
     <row r="133" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="C133" s="9">
         <v>2166</v>
@@ -42628,10 +42628,10 @@
     </row>
     <row r="134" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="C134" s="9">
         <v>2376</v>
@@ -42710,10 +42710,10 @@
     </row>
     <row r="135" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="C135" s="9">
         <v>1845</v>
@@ -42792,10 +42792,10 @@
     </row>
     <row r="136" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="C136" s="9">
         <v>1554</v>
@@ -42874,10 +42874,10 @@
     </row>
     <row r="137" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="C137" s="9">
         <v>1632</v>
@@ -42956,10 +42956,10 @@
     </row>
     <row r="138" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C138" s="9">
         <v>1473</v>
@@ -43038,10 +43038,10 @@
     </row>
     <row r="139" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C139" s="9">
         <v>2181</v>
@@ -43120,10 +43120,10 @@
     </row>
     <row r="140" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C140" s="9">
         <v>1488</v>
@@ -43202,10 +43202,10 @@
     </row>
     <row r="141" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C141" s="9">
         <v>1275</v>
@@ -43284,10 +43284,10 @@
     </row>
     <row r="142" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C142" s="9">
         <v>1455</v>
@@ -43366,10 +43366,10 @@
     </row>
     <row r="143" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C143" s="9">
         <v>1215</v>
@@ -43448,10 +43448,10 @@
     </row>
     <row r="144" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C144" s="9">
         <v>978</v>
@@ -43530,10 +43530,10 @@
     </row>
     <row r="145" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C145" s="9">
         <v>1554</v>
@@ -43612,10 +43612,10 @@
     </row>
     <row r="146" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C146" s="9">
         <v>1554</v>
@@ -43694,10 +43694,10 @@
     </row>
     <row r="147" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C147" s="9">
         <v>1185</v>
@@ -43776,10 +43776,10 @@
     </row>
     <row r="148" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C148" s="9">
         <v>1113</v>
@@ -43858,10 +43858,10 @@
     </row>
     <row r="149" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C149" s="9">
         <v>1386</v>
@@ -43940,10 +43940,10 @@
     </row>
     <row r="150" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C150" s="9">
         <v>1674</v>
@@ -44022,10 +44022,10 @@
     </row>
     <row r="151" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C151" s="9">
         <v>1002</v>
@@ -44104,10 +44104,10 @@
     </row>
     <row r="152" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C152" s="9">
         <v>1404</v>
@@ -44186,10 +44186,10 @@
     </row>
     <row r="153" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C153" s="9">
         <v>1584</v>
@@ -44268,10 +44268,10 @@
     </row>
     <row r="154" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C154" s="9">
         <v>1347</v>
@@ -44350,10 +44350,10 @@
     </row>
     <row r="155" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C155" s="9">
         <v>1584</v>
@@ -44432,10 +44432,10 @@
     </row>
     <row r="156" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C156" s="9">
         <v>996</v>
@@ -44514,10 +44514,10 @@
     </row>
     <row r="157" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C157" s="9">
         <v>1119</v>
@@ -44596,10 +44596,10 @@
     </row>
     <row r="158" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C158" s="9">
         <v>984</v>
@@ -44678,10 +44678,10 @@
     </row>
     <row r="159" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="C159" s="9">
         <v>981</v>
@@ -44760,10 +44760,10 @@
     </row>
     <row r="160" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C160" s="9">
         <v>1254</v>
@@ -44842,10 +44842,10 @@
     </row>
     <row r="161" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C161" s="9">
         <v>1053</v>
@@ -44924,10 +44924,10 @@
     </row>
     <row r="162" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C162" s="9">
         <v>1275</v>
@@ -45006,10 +45006,10 @@
     </row>
     <row r="163" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C163" s="9">
         <v>888</v>
@@ -45088,10 +45088,10 @@
     </row>
     <row r="164" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C164" s="9">
         <v>1089</v>
@@ -45170,10 +45170,10 @@
     </row>
     <row r="165" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="C165" s="9">
         <v>1095</v>
@@ -45252,10 +45252,10 @@
     </row>
     <row r="166" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="C166" s="9">
         <v>1383</v>
@@ -45334,10 +45334,10 @@
     </row>
     <row r="167" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C167" s="9">
         <v>1668</v>
@@ -45416,10 +45416,10 @@
     </row>
     <row r="168" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C168" s="9">
         <v>1665</v>
@@ -45498,10 +45498,10 @@
     </row>
     <row r="169" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C169" s="9">
         <v>1266</v>
@@ -45580,10 +45580,10 @@
     </row>
     <row r="170" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C170" s="9">
         <v>1566</v>
@@ -45662,10 +45662,10 @@
     </row>
     <row r="171" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C171" s="9">
         <v>1584</v>
@@ -45744,10 +45744,10 @@
     </row>
     <row r="172" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C172" s="9">
         <v>1692</v>
@@ -45826,10 +45826,10 @@
     </row>
     <row r="173" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="C173" s="9">
         <v>1377</v>
@@ -45908,10 +45908,10 @@
     </row>
     <row r="174" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C174" s="9">
         <v>1245</v>
@@ -45990,10 +45990,10 @@
     </row>
     <row r="175" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C175" s="9">
         <v>1236</v>
@@ -46072,10 +46072,10 @@
     </row>
     <row r="176" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="C176" s="9">
         <v>1548</v>
@@ -46154,10 +46154,10 @@
     </row>
     <row r="177" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C177" s="9">
         <v>1542</v>
@@ -46236,10 +46236,10 @@
     </row>
     <row r="178" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C178" s="9">
         <v>1629</v>
@@ -46318,10 +46318,10 @@
     </row>
     <row r="179" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C179" s="9">
         <v>1038</v>
@@ -46400,10 +46400,10 @@
     </row>
     <row r="180" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C180" s="9">
         <v>1041</v>
@@ -46482,10 +46482,10 @@
     </row>
     <row r="181" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C181" s="9">
         <v>1071</v>
@@ -46564,10 +46564,10 @@
     </row>
     <row r="182" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C182" s="9">
         <v>1059</v>
@@ -46646,10 +46646,10 @@
     </row>
     <row r="183" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C183" s="9">
         <v>1305</v>
@@ -46728,10 +46728,10 @@
     </row>
     <row r="184" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C184" s="9">
         <v>1146</v>
@@ -46810,10 +46810,10 @@
     </row>
     <row r="185" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C185" s="9">
         <v>2286</v>
@@ -46892,10 +46892,10 @@
     </row>
     <row r="186" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="C186" s="9">
         <v>2127</v>
@@ -46974,10 +46974,10 @@
     </row>
     <row r="187" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C187" s="9">
         <v>1968</v>
@@ -47056,10 +47056,10 @@
     </row>
     <row r="188" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="C188" s="9">
         <v>1740</v>
@@ -47138,10 +47138,10 @@
     </row>
     <row r="189" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C189" s="9">
         <v>2451</v>
@@ -47220,10 +47220,10 @@
     </row>
     <row r="190" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C190" s="9">
         <v>2418</v>
@@ -47302,10 +47302,10 @@
     </row>
     <row r="191" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="C191" s="9">
         <v>3027</v>
@@ -47384,10 +47384,10 @@
     </row>
     <row r="192" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C192" s="9">
         <v>2310</v>
@@ -47466,10 +47466,10 @@
     </row>
     <row r="193" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C193" s="9">
         <v>1977</v>
@@ -47548,10 +47548,10 @@
     </row>
     <row r="194" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="C194" s="9">
         <v>975</v>
@@ -47630,10 +47630,10 @@
     </row>
     <row r="195" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="C195" s="9">
         <v>1479</v>
@@ -47712,10 +47712,10 @@
     </row>
     <row r="196" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="C196" s="9">
         <v>903</v>
@@ -47794,10 +47794,10 @@
     </row>
     <row r="197" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="C197" s="9">
         <v>1149</v>
@@ -47876,10 +47876,10 @@
     </row>
     <row r="198" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="C198" s="9">
         <v>1836</v>
@@ -47958,10 +47958,10 @@
     </row>
     <row r="199" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="C199" s="9">
         <v>1128</v>
@@ -48040,10 +48040,10 @@
     </row>
     <row r="200" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C200" s="9">
         <v>1563</v>
@@ -48122,10 +48122,10 @@
     </row>
     <row r="201" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C201" s="9">
         <v>1659</v>
@@ -48204,10 +48204,10 @@
     </row>
     <row r="202" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C202" s="9">
         <v>1854</v>
@@ -48286,10 +48286,10 @@
     </row>
     <row r="203" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C203" s="9">
         <v>1479</v>
@@ -48368,10 +48368,10 @@
     </row>
     <row r="204" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C204" s="9">
         <v>2202</v>
@@ -48450,10 +48450,10 @@
     </row>
     <row r="205" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="C205" s="9">
         <v>3054</v>
@@ -48532,10 +48532,10 @@
     </row>
     <row r="206" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C206" s="9">
         <v>4197</v>
@@ -48614,10 +48614,10 @@
     </row>
     <row r="207" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C207" s="9">
         <v>1374</v>
@@ -48696,10 +48696,10 @@
     </row>
     <row r="208" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="C208" s="9">
         <v>1437</v>
@@ -48778,10 +48778,10 @@
     </row>
     <row r="209" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C209" s="9">
         <v>1386</v>
@@ -48860,10 +48860,10 @@
     </row>
     <row r="210" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="C210" s="9">
         <v>1194</v>
@@ -48942,10 +48942,10 @@
     </row>
     <row r="211" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="C211" s="9">
         <v>2955</v>
@@ -49024,10 +49024,10 @@
     </row>
     <row r="212" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="C212" s="9">
         <v>2811</v>
@@ -49106,10 +49106,10 @@
     </row>
     <row r="213" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="C213" s="9">
         <v>1110</v>
@@ -49188,10 +49188,10 @@
     </row>
     <row r="214" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C214" s="9">
         <v>1452</v>
@@ -49270,10 +49270,10 @@
     </row>
     <row r="215" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C215" s="9">
         <v>1266</v>
@@ -49352,10 +49352,10 @@
     </row>
     <row r="216" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C216" s="9">
         <v>1380</v>
@@ -49434,10 +49434,10 @@
     </row>
     <row r="217" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="C217" s="9">
         <v>1089</v>
@@ -49516,10 +49516,10 @@
     </row>
     <row r="218" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="C218" s="9">
         <v>1287</v>
@@ -49598,10 +49598,10 @@
     </row>
     <row r="219" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="C219" s="9">
         <v>864</v>
@@ -49680,10 +49680,10 @@
     </row>
     <row r="220" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C220" s="9">
         <v>891</v>
@@ -49762,10 +49762,10 @@
     </row>
     <row r="221" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C221" s="9">
         <v>870</v>
@@ -49844,10 +49844,10 @@
     </row>
     <row r="222" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C222" s="9">
         <v>951</v>
@@ -49926,10 +49926,10 @@
     </row>
     <row r="223" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C223" s="9">
         <v>1197</v>
@@ -50008,10 +50008,10 @@
     </row>
     <row r="224" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C224" s="9">
         <v>1068</v>
@@ -50090,10 +50090,10 @@
     </row>
     <row r="225" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="C225" s="9">
         <v>1404</v>
@@ -50172,10 +50172,10 @@
     </row>
     <row r="226" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="C226" s="9">
         <v>1248</v>
@@ -50254,10 +50254,10 @@
     </row>
     <row r="227" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="C227" s="9">
         <v>1656</v>
@@ -50336,10 +50336,10 @@
     </row>
     <row r="228" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C228" s="9">
         <v>1377</v>
@@ -50418,10 +50418,10 @@
     </row>
     <row r="229" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="C229" s="9">
         <v>1572</v>
@@ -50500,10 +50500,10 @@
     </row>
     <row r="230" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="C230" s="9">
         <v>1584</v>
@@ -50582,10 +50582,10 @@
     </row>
     <row r="231" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="C231" s="9">
         <v>1383</v>
@@ -50664,10 +50664,10 @@
     </row>
     <row r="232" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="C232" s="9">
         <v>1800</v>
@@ -50746,10 +50746,10 @@
     </row>
     <row r="233" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A233" s="8" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C233" s="9">
         <v>2025</v>
@@ -50828,10 +50828,10 @@
     </row>
     <row r="234" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="C234" s="9">
         <v>1491</v>
@@ -50910,10 +50910,10 @@
     </row>
     <row r="235" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C235" s="9">
         <v>1182</v>
@@ -50992,10 +50992,10 @@
     </row>
     <row r="236" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="C236" s="9">
         <v>1086</v>
@@ -51074,10 +51074,10 @@
     </row>
     <row r="237" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="C237" s="9">
         <v>1275</v>
@@ -51156,10 +51156,10 @@
     </row>
     <row r="238" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="C238" s="9">
         <v>1680</v>
@@ -51238,10 +51238,10 @@
     </row>
     <row r="239" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C239" s="9">
         <v>1980</v>
@@ -51320,10 +51320,10 @@
     </row>
     <row r="240" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C240" s="9">
         <v>2088</v>
@@ -51402,10 +51402,10 @@
     </row>
     <row r="241" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A241" s="8" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="C241" s="9">
         <v>1905</v>
@@ -51484,10 +51484,10 @@
     </row>
     <row r="242" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C242" s="9">
         <v>1779</v>
@@ -51566,10 +51566,10 @@
     </row>
     <row r="243" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C243" s="9">
         <v>1476</v>
@@ -51648,10 +51648,10 @@
     </row>
     <row r="244" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C244" s="9">
         <v>1362</v>
@@ -51730,10 +51730,10 @@
     </row>
     <row r="245" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C245" s="9">
         <v>1659</v>
@@ -51812,10 +51812,10 @@
     </row>
     <row r="246" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C246" s="9">
         <v>1026</v>
@@ -51894,10 +51894,10 @@
     </row>
     <row r="247" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A247" s="8" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C247" s="9">
         <v>1374</v>
@@ -51976,10 +51976,10 @@
     </row>
     <row r="248" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C248" s="9">
         <v>1137</v>
@@ -52058,10 +52058,10 @@
     </row>
     <row r="249" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A249" s="8" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C249" s="9">
         <v>1440</v>
@@ -52140,10 +52140,10 @@
     </row>
     <row r="250" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C250" s="9">
         <v>1479</v>
@@ -52222,10 +52222,10 @@
     </row>
     <row r="251" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A251" s="8" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C251" s="9">
         <v>1590</v>
@@ -52304,10 +52304,10 @@
     </row>
     <row r="252" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C252" s="9">
         <v>1746</v>
@@ -52386,10 +52386,10 @@
     </row>
     <row r="253" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A253" s="8" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C253" s="9">
         <v>1101</v>
@@ -52468,10 +52468,10 @@
     </row>
     <row r="254" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C254" s="9">
         <v>1089</v>
@@ -52550,10 +52550,10 @@
     </row>
     <row r="255" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A255" s="8" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C255" s="9">
         <v>1587</v>
@@ -52632,10 +52632,10 @@
     </row>
     <row r="256" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C256" s="9">
         <v>1080</v>
@@ -52714,10 +52714,10 @@
     </row>
     <row r="257" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A257" s="8" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="C257" s="9">
         <v>1272</v>
@@ -52796,10 +52796,10 @@
     </row>
     <row r="258" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C258" s="9">
         <v>1242</v>
@@ -52878,10 +52878,10 @@
     </row>
     <row r="259" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A259" s="8" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C259" s="9">
         <v>1710</v>
@@ -52960,10 +52960,10 @@
     </row>
     <row r="260" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C260" s="9">
         <v>978</v>
@@ -53042,10 +53042,10 @@
     </row>
     <row r="261" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A261" s="8" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C261" s="9">
         <v>1275</v>
@@ -53124,10 +53124,10 @@
     </row>
     <row r="262" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C262" s="9">
         <v>1137</v>
@@ -53206,10 +53206,10 @@
     </row>
     <row r="263" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A263" s="8" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C263" s="9">
         <v>1446</v>
@@ -53288,10 +53288,10 @@
     </row>
     <row r="264" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C264" s="9">
         <v>1044</v>
@@ -53370,10 +53370,10 @@
     </row>
     <row r="265" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A265" s="8" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C265" s="9">
         <v>1038</v>
@@ -53452,10 +53452,10 @@
     </row>
     <row r="266" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C266" s="9">
         <v>1344</v>
@@ -53534,10 +53534,10 @@
     </row>
     <row r="267" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A267" s="8" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="C267" s="9">
         <v>1299</v>
@@ -53616,10 +53616,10 @@
     </row>
     <row r="268" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C268" s="9">
         <v>1005</v>
@@ -53698,10 +53698,10 @@
     </row>
     <row r="269" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A269" s="8" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C269" s="9">
         <v>1461</v>
@@ -53780,10 +53780,10 @@
     </row>
     <row r="270" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="C270" s="9">
         <v>1389</v>
@@ -53862,10 +53862,10 @@
     </row>
     <row r="271" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C271" s="9">
         <v>1533</v>
@@ -53944,10 +53944,10 @@
     </row>
     <row r="272" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C272" s="9">
         <v>1506</v>
@@ -54026,10 +54026,10 @@
     </row>
     <row r="273" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A273" s="8" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C273" s="9">
         <v>1602</v>
@@ -54108,10 +54108,10 @@
     </row>
     <row r="274" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C274" s="9">
         <v>1716</v>
@@ -54190,10 +54190,10 @@
     </row>
     <row r="275" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A275" s="8" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="C275" s="9">
         <v>2196</v>
@@ -54272,10 +54272,10 @@
     </row>
     <row r="276" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C276" s="9">
         <v>1569</v>
@@ -54354,10 +54354,10 @@
     </row>
     <row r="277" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A277" s="8" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="C277" s="9">
         <v>1674</v>
@@ -54436,10 +54436,10 @@
     </row>
     <row r="278" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="C278" s="9">
         <v>1701</v>
@@ -54518,10 +54518,10 @@
     </row>
     <row r="279" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A279" s="8" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="C279" s="9">
         <v>2160</v>
@@ -54600,10 +54600,10 @@
     </row>
     <row r="280" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="C280" s="9">
         <v>1125</v>
@@ -54682,10 +54682,10 @@
     </row>
     <row r="281" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A281" s="8" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C281" s="9">
         <v>1260</v>
@@ -54764,10 +54764,10 @@
     </row>
     <row r="282" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="C282" s="9">
         <v>1989</v>
@@ -54846,10 +54846,10 @@
     </row>
     <row r="283" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A283" s="8" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="C283" s="9">
         <v>2073</v>
@@ -54928,10 +54928,10 @@
     </row>
     <row r="284" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="C284" s="9">
         <v>1866</v>
@@ -55010,10 +55010,10 @@
     </row>
     <row r="285" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A285" s="8" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="C285" s="9">
         <v>1935</v>
@@ -55092,10 +55092,10 @@
     </row>
     <row r="286" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="C286" s="9">
         <v>1518</v>
@@ -55174,10 +55174,10 @@
     </row>
     <row r="287" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A287" s="8" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="C287" s="9">
         <v>2235</v>
@@ -55256,10 +55256,10 @@
     </row>
     <row r="288" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="C288" s="9">
         <v>1524</v>
@@ -55338,10 +55338,10 @@
     </row>
     <row r="289" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A289" s="8" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="C289" s="9">
         <v>1785</v>
@@ -55420,10 +55420,10 @@
     </row>
     <row r="290" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C290" s="9">
         <v>1590</v>
@@ -55502,10 +55502,10 @@
     </row>
     <row r="291" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A291" s="8" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="C291" s="9">
         <v>1209</v>
@@ -55584,10 +55584,10 @@
     </row>
     <row r="292" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="C292" s="9">
         <v>1614</v>
@@ -55666,10 +55666,10 @@
     </row>
     <row r="293" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A293" s="8" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="C293" s="9">
         <v>1635</v>
@@ -55748,10 +55748,10 @@
     </row>
     <row r="294" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="C294" s="9">
         <v>1134</v>
@@ -55830,10 +55830,10 @@
     </row>
     <row r="295" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A295" s="8" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="C295" s="9">
         <v>957</v>
@@ -55912,10 +55912,10 @@
     </row>
     <row r="296" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="C296" s="9">
         <v>1041</v>
@@ -55994,10 +55994,10 @@
     </row>
     <row r="297" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A297" s="8" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="C297" s="9">
         <v>1017</v>
@@ -56076,10 +56076,10 @@
     </row>
     <row r="298" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="C298" s="9">
         <v>990</v>
@@ -56158,10 +56158,10 @@
     </row>
     <row r="299" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A299" s="8" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="C299" s="9">
         <v>1665</v>
@@ -56240,10 +56240,10 @@
     </row>
     <row r="300" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C300" s="9">
         <v>1020</v>
@@ -56322,10 +56322,10 @@
     </row>
     <row r="301" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A301" s="8" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C301" s="9">
         <v>954</v>
@@ -56404,10 +56404,10 @@
     </row>
     <row r="302" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C302" s="9">
         <v>966</v>
@@ -56486,10 +56486,10 @@
     </row>
     <row r="303" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A303" s="8" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="C303" s="9">
         <v>978</v>
@@ -56568,10 +56568,10 @@
     </row>
     <row r="304" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="C304" s="9">
         <v>987</v>
@@ -56650,10 +56650,10 @@
     </row>
     <row r="305" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A305" s="8" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="C305" s="9">
         <v>996</v>
@@ -56732,10 +56732,10 @@
     </row>
     <row r="306" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="C306" s="9">
         <v>1002</v>
@@ -56814,10 +56814,10 @@
     </row>
     <row r="307" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A307" s="8" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="C307" s="9">
         <v>1011</v>
@@ -56896,10 +56896,10 @@
     </row>
     <row r="308" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A308" s="8" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="C308" s="9">
         <v>1017</v>
@@ -56978,10 +56978,10 @@
     </row>
     <row r="309" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A309" s="8" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="C309" s="9">
         <v>1020</v>
@@ -57060,10 +57060,10 @@
     </row>
     <row r="310" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A310" s="8" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="C310" s="9">
         <v>1023</v>
@@ -57142,10 +57142,10 @@
     </row>
     <row r="311" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="C311" s="9">
         <v>1029</v>
@@ -57224,10 +57224,10 @@
     </row>
     <row r="312" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="C312" s="9">
         <v>1032</v>
@@ -57306,10 +57306,10 @@
     </row>
     <row r="313" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A313" s="8" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="C313" s="9">
         <v>1038</v>
@@ -57388,10 +57388,10 @@
     </row>
     <row r="314" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="C314" s="9">
         <v>1041</v>
@@ -57470,10 +57470,10 @@
     </row>
     <row r="315" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A315" s="8" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="C315" s="9">
         <v>1047</v>
@@ -57552,10 +57552,10 @@
     </row>
     <row r="316" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="C316" s="9">
         <v>1053</v>
@@ -57634,10 +57634,10 @@
     </row>
     <row r="317" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="C317" s="9">
         <v>1062</v>
@@ -57716,10 +57716,10 @@
     </row>
     <row r="318" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C318" s="9">
         <v>1074</v>
@@ -57798,10 +57798,10 @@
     </row>
     <row r="319" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A319" s="8" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="C319" s="9">
         <v>1089</v>
@@ -57880,10 +57880,10 @@
     </row>
     <row r="320" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="C320" s="9">
         <v>1107</v>
@@ -57962,10 +57962,10 @@
     </row>
     <row r="321" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A321" s="8" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="C321" s="9">
         <v>1122</v>
@@ -58044,10 +58044,10 @@
     </row>
     <row r="322" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="C322" s="9">
         <v>1143</v>
@@ -58126,10 +58126,10 @@
     </row>
     <row r="323" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="C323" s="9">
         <v>1167</v>
@@ -58208,10 +58208,10 @@
     </row>
     <row r="324" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="C324" s="9">
         <v>1197</v>
@@ -58290,10 +58290,10 @@
     </row>
     <row r="325" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A325" s="8" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="C325" s="9">
         <v>1233</v>
@@ -58372,10 +58372,10 @@
     </row>
     <row r="326" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="C326" s="9">
         <v>1263</v>
@@ -58454,10 +58454,10 @@
     </row>
     <row r="327" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A327" s="8" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="C327" s="9">
         <v>1293</v>
@@ -58536,10 +58536,10 @@
     </row>
     <row r="328" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="C328" s="9">
         <v>1317</v>
@@ -58618,10 +58618,10 @@
     </row>
     <row r="329" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A329" s="8" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="C329" s="9">
         <v>1341</v>
@@ -58700,10 +58700,10 @@
     </row>
     <row r="330" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A330" s="8" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="C330" s="9">
         <v>1365</v>
@@ -58782,10 +58782,10 @@
     </row>
     <row r="331" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A331" s="8" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="C331" s="9">
         <v>1389</v>
@@ -58864,10 +58864,10 @@
     </row>
     <row r="332" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A332" s="8" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="C332" s="9">
         <v>1428</v>
@@ -58946,10 +58946,10 @@
     </row>
     <row r="333" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A333" s="8" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="C333" s="9">
         <v>1482</v>
@@ -59028,10 +59028,10 @@
     </row>
     <row r="334" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="C334" s="9">
         <v>1539</v>
@@ -59110,10 +59110,10 @@
     </row>
     <row r="335" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A335" s="8" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="C335" s="9">
         <v>1611</v>
@@ -59192,10 +59192,10 @@
     </row>
     <row r="336" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="C336" s="10">
         <v>1731</v>
@@ -59274,10 +59274,10 @@
     </row>
     <row r="337" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A337" s="8" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="C337" s="10">
         <v>1800</v>
@@ -59356,10 +59356,10 @@
     </row>
     <row r="338" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="C338" s="9">
         <v>1902</v>
@@ -59438,10 +59438,10 @@
     </row>
     <row r="339" spans="1:28" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="C339" s="9">
         <v>2157</v>
